--- a/scraper/top_remaining_spreadsheets_states/top_remaining_SD.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_SD.xlsx
@@ -44,7 +44,7 @@
     <t>Freezin' Greetings</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>5X</t>
@@ -53,10 +53,10 @@
     <t>Lucky Cherry Slots</t>
   </si>
   <si>
+    <t>White Hot 7's</t>
+  </si>
+  <si>
     <t>Snow Me The Money</t>
-  </si>
-  <si>
-    <t>White Hot 7's</t>
   </si>
   <si>
     <t>$2.00 Games</t>
@@ -628,10 +628,10 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -648,10 +648,10 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1051,7 +1051,7 @@
         <v>433</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_SD.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_SD.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Freezin' Greetings</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>5X</t>
@@ -74,19 +74,13 @@
     <t>Super Triple 777</t>
   </si>
   <si>
+    <t>Bullseye Cash</t>
+  </si>
+  <si>
     <t>7 11 21</t>
   </si>
   <si>
-    <t>Bullseye Cash</t>
-  </si>
-  <si>
-    <t>Money Multiplier</t>
-  </si>
-  <si>
-    <t>2019-02-13</t>
-  </si>
-  <si>
-    <t>Money Bags</t>
+    <t>2019-03-21</t>
   </si>
   <si>
     <t>$3.00 Games</t>
@@ -95,24 +89,24 @@
     <t>Slingo Tripler</t>
   </si>
   <si>
+    <t>Extra! Extra! Cashword</t>
+  </si>
+  <si>
     <t>Pac-Man</t>
   </si>
   <si>
+    <t>Fireball Bingo</t>
+  </si>
+  <si>
+    <t>Naughty and Nice Cashword</t>
+  </si>
+  <si>
+    <t>Loteria</t>
+  </si>
+  <si>
     <t>Cashword</t>
   </si>
   <si>
-    <t>Fireball Bingo</t>
-  </si>
-  <si>
-    <t>Naughty and Nice Cashword</t>
-  </si>
-  <si>
-    <t>Loteria</t>
-  </si>
-  <si>
-    <t>High Voltage Cashword</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -122,6 +116,9 @@
     <t>Lady Luck</t>
   </si>
   <si>
+    <t>Makin' Bacon</t>
+  </si>
+  <si>
     <t>Shining Star</t>
   </si>
   <si>
@@ -131,18 +128,12 @@
     <t>Tripler Cashword</t>
   </si>
   <si>
+    <t>Break The Bank Double Play</t>
+  </si>
+  <si>
     <t>20X</t>
   </si>
   <si>
-    <t>Holiday 7</t>
-  </si>
-  <si>
-    <t>2019-02-21</t>
-  </si>
-  <si>
-    <t>ROCKIN' 5's</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
   </si>
   <si>
     <t>Diamond 7's</t>
-  </si>
-  <si>
-    <t>$100,000 Taxes Paid</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -509,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +559,7 @@
         <v>438</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -611,7 +599,7 @@
         <v>440</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -748,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -768,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +770,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +790,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,16 +810,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -842,16 +830,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -862,16 +850,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -882,16 +870,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -902,19 +890,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,13 +910,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -942,19 +930,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,16 +950,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -982,16 +970,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1002,13 +990,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1022,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1042,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1062,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1082,19 +1070,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1090,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1128,10 +1116,10 @@
         <v>43</v>
       </c>
       <c r="D31">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1148,10 +1136,10 @@
         <v>44</v>
       </c>
       <c r="D32">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1162,19 +1150,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>6180</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,78 +1170,18 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>8240</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <v>394</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>403</v>
-      </c>
-      <c r="E36">
-        <v>6180</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37">
-        <v>434</v>
-      </c>
-      <c r="E37">
-        <v>8240</v>
-      </c>
-      <c r="F37" t="s">
         <v>9</v>
       </c>
     </row>
